--- a/static/uploads/mau/hopdong/nt1/o2_trolen/hdtv.xlsx
+++ b/static/uploads/mau/hopdong/nt1/o2_trolen/hdtv.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khanh\Desktop\HRM\static\uploads\mau\hopdong\nt1\o2_trolen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95571FD1-26BA-4605-9709-5264E344CD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91EA59D6-BE0B-4EED-BE67-90DAEC8665FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="MẪU IN HỢP ĐỒNG LAO ĐỘNG" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -290,9 +290,6 @@
     <t>Khoản tiền này sẽ được chi trả theo ngày công làm việc thực tế trong tháng.</t>
   </si>
   <si>
-    <t>ĐIỀU 4: NGHĨA VỤ VÀ QUYỀN HẠN CỦA NGƯỜI SỬ DỤNG LAO ĐỘNG</t>
-  </si>
-  <si>
     <t>4.1. Quyền lợi</t>
   </si>
   <si>
@@ -417,12 +414,15 @@
   </si>
   <si>
     <t>Vị trí: Giám đốc điều hành</t>
+  </si>
+  <si>
+    <t>ĐIỀU 4: NGHĨA VỤ VÀ QUYỀN HẠN CỦA NGƯỜI LAO ĐỘNG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -499,7 +499,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,6 +509,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,72 +533,69 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,10 +631,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1">
+        <xdr:cNvPr id="1029" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E9E198A-A8CE-3492-9E77-A1B87F39F04D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -701,44 +704,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -766,31 +769,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -818,23 +804,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -846,131 +815,160 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1062,23 +1060,18 @@
     </a:lnDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:X110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43:J43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42:X42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1090,94 +1083,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
     </row>
     <row r="2" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="16" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="18" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
     </row>
     <row r="3" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
     </row>
     <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
@@ -1236,60 +1229,60 @@
       <c r="X5" s="2"/>
     </row>
     <row r="6" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
     </row>
     <row r="8" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
@@ -1450,12 +1443,12 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1548,32 +1541,32 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
       <c r="N16" s="4" t="s">
         <v>31</v>
       </c>
       <c r="O16" s="4"/>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
     </row>
     <row r="17" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
@@ -1739,31 +1732,31 @@
     </row>
     <row r="22" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
     </row>
     <row r="23" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
@@ -2000,14 +1993,14 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -2310,54 +2303,54 @@
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="19" t="s">
+      <c r="G42" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20"/>
     </row>
     <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
       <c r="M43" s="2"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
     </row>
     <row r="44" spans="1:24" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
@@ -2951,36 +2944,36 @@
     </row>
     <row r="65" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5"/>
-      <c r="V65" s="5"/>
-      <c r="W65" s="5"/>
-      <c r="X65" s="5"/>
+      <c r="B65" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
     </row>
     <row r="66" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -3008,7 +3001,7 @@
     <row r="67" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -3036,7 +3029,7 @@
     <row r="68" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -3064,7 +3057,7 @@
     <row r="69" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -3092,7 +3085,7 @@
     <row r="70" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -3120,7 +3113,7 @@
     <row r="71" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -3148,7 +3141,7 @@
     <row r="72" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -3176,7 +3169,7 @@
     <row r="73" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -3204,7 +3197,7 @@
     <row r="74" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -3232,7 +3225,7 @@
     <row r="75" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -3260,7 +3253,7 @@
     <row r="76" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -3288,7 +3281,7 @@
     <row r="77" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -3316,7 +3309,7 @@
     <row r="78" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -3344,7 +3337,7 @@
     <row r="79" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -3372,7 +3365,7 @@
     <row r="80" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -3400,7 +3393,7 @@
     <row r="81" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -3428,7 +3421,7 @@
     <row r="82" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -3456,7 +3449,7 @@
     <row r="83" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -3484,7 +3477,7 @@
     <row r="84" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -3512,7 +3505,7 @@
     <row r="85" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -3540,7 +3533,7 @@
     <row r="86" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -3568,7 +3561,7 @@
     <row r="87" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -3596,7 +3589,7 @@
     <row r="88" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -3624,7 +3617,7 @@
     <row r="89" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -3652,7 +3645,7 @@
     <row r="90" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -3680,7 +3673,7 @@
     <row r="91" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -3708,7 +3701,7 @@
     <row r="92" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -3736,7 +3729,7 @@
     <row r="93" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -3764,7 +3757,7 @@
     <row r="94" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -3792,7 +3785,7 @@
     <row r="95" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -3820,7 +3813,7 @@
     <row r="96" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -3848,7 +3841,7 @@
     <row r="97" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -3876,7 +3869,7 @@
     <row r="98" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -3904,7 +3897,7 @@
     <row r="99" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -3932,7 +3925,7 @@
     <row r="100" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -3960,7 +3953,7 @@
     <row r="101" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -3973,7 +3966,7 @@
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
       <c r="M101" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N101" s="6"/>
       <c r="O101" s="6"/>
@@ -3990,7 +3983,7 @@
     <row r="102" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -4124,7 +4117,7 @@
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -4137,7 +4130,7 @@
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
       <c r="O107" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P107" s="4"/>
       <c r="Q107" s="4"/>
@@ -4165,7 +4158,7 @@
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P108" s="4"/>
       <c r="Q108" s="4"/>
@@ -4193,7 +4186,7 @@
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P109" s="4"/>
       <c r="Q109" s="5" t="s">
@@ -4223,7 +4216,7 @@
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
       <c r="O110" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P110" s="4"/>
       <c r="Q110" s="4"/>
@@ -4244,13 +4237,6 @@
     <mergeCell ref="M2:X2"/>
     <mergeCell ref="E3:L3"/>
     <mergeCell ref="M3:X3"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:X11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:X12"/>
     <mergeCell ref="E4:L4"/>
     <mergeCell ref="M4:X4"/>
     <mergeCell ref="A6:X6"/>
@@ -4260,6 +4246,18 @@
     <mergeCell ref="D10:M10"/>
     <mergeCell ref="N10:P10"/>
     <mergeCell ref="Q10:X10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:X11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:X12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:X13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:X14"/>
     <mergeCell ref="B15:C15"/>
@@ -4268,19 +4266,6 @@
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="P16:X16"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:X13"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:X20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:X21"/>
     <mergeCell ref="B17:H17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:M18"/>
@@ -4290,6 +4275,19 @@
     <mergeCell ref="E19:M19"/>
     <mergeCell ref="N19:P19"/>
     <mergeCell ref="Q19:X19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:X20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:X21"/>
+    <mergeCell ref="B22:X22"/>
+    <mergeCell ref="B23:X23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:X24"/>
+    <mergeCell ref="B25:W25"/>
+    <mergeCell ref="B26:X26"/>
     <mergeCell ref="B27:X27"/>
     <mergeCell ref="B28:X28"/>
     <mergeCell ref="B29:X29"/>
@@ -4298,83 +4296,79 @@
     <mergeCell ref="G31:L31"/>
     <mergeCell ref="M31:O31"/>
     <mergeCell ref="P31:X31"/>
-    <mergeCell ref="B22:X22"/>
-    <mergeCell ref="B23:X23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H24:X24"/>
-    <mergeCell ref="B25:W25"/>
-    <mergeCell ref="B26:X26"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:X32"/>
+    <mergeCell ref="B33:X33"/>
+    <mergeCell ref="B34:X34"/>
+    <mergeCell ref="B35:X35"/>
+    <mergeCell ref="B36:X36"/>
     <mergeCell ref="B37:X37"/>
     <mergeCell ref="B38:X38"/>
     <mergeCell ref="B40:X40"/>
     <mergeCell ref="B41:X41"/>
     <mergeCell ref="B42:F42"/>
     <mergeCell ref="G42:X42"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:X32"/>
-    <mergeCell ref="B33:X33"/>
-    <mergeCell ref="B34:X34"/>
-    <mergeCell ref="B35:X35"/>
-    <mergeCell ref="B36:X36"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="N43:X43"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="H45:X45"/>
+    <mergeCell ref="B46:X46"/>
+    <mergeCell ref="G43:L43"/>
     <mergeCell ref="B47:X47"/>
     <mergeCell ref="B48:J48"/>
     <mergeCell ref="B49:L49"/>
     <mergeCell ref="M49:X49"/>
     <mergeCell ref="B50:W50"/>
     <mergeCell ref="B51:J51"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="N43:X43"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="H45:X45"/>
-    <mergeCell ref="B46:X46"/>
+    <mergeCell ref="B52:X52"/>
+    <mergeCell ref="B53:X53"/>
+    <mergeCell ref="B54:J54"/>
+    <mergeCell ref="B55:X55"/>
+    <mergeCell ref="B56:X56"/>
+    <mergeCell ref="B57:X57"/>
     <mergeCell ref="B58:X58"/>
     <mergeCell ref="B59:X59"/>
     <mergeCell ref="B60:X60"/>
     <mergeCell ref="B61:X61"/>
     <mergeCell ref="B62:X62"/>
     <mergeCell ref="B63:X63"/>
-    <mergeCell ref="B52:X52"/>
-    <mergeCell ref="B53:X53"/>
-    <mergeCell ref="B54:J54"/>
-    <mergeCell ref="B55:X55"/>
-    <mergeCell ref="B56:X56"/>
-    <mergeCell ref="B57:X57"/>
+    <mergeCell ref="B64:X64"/>
+    <mergeCell ref="B65:X65"/>
+    <mergeCell ref="B66:X66"/>
+    <mergeCell ref="B67:X67"/>
+    <mergeCell ref="B68:X68"/>
+    <mergeCell ref="B69:X69"/>
     <mergeCell ref="B70:W70"/>
     <mergeCell ref="B71:X71"/>
     <mergeCell ref="B72:X72"/>
     <mergeCell ref="B73:X73"/>
     <mergeCell ref="B74:X74"/>
     <mergeCell ref="B75:X75"/>
-    <mergeCell ref="B64:X64"/>
-    <mergeCell ref="B65:X65"/>
-    <mergeCell ref="B66:X66"/>
-    <mergeCell ref="B67:X67"/>
-    <mergeCell ref="B68:X68"/>
-    <mergeCell ref="B69:X69"/>
+    <mergeCell ref="B76:X76"/>
+    <mergeCell ref="B77:X77"/>
+    <mergeCell ref="B78:X78"/>
+    <mergeCell ref="B79:X79"/>
+    <mergeCell ref="B80:X80"/>
+    <mergeCell ref="B81:X81"/>
     <mergeCell ref="B82:X82"/>
     <mergeCell ref="B83:X83"/>
     <mergeCell ref="B84:X84"/>
     <mergeCell ref="B85:X85"/>
     <mergeCell ref="B86:X86"/>
     <mergeCell ref="B87:X87"/>
-    <mergeCell ref="B76:X76"/>
-    <mergeCell ref="B77:X77"/>
-    <mergeCell ref="B78:X78"/>
-    <mergeCell ref="B79:X79"/>
-    <mergeCell ref="B80:X80"/>
-    <mergeCell ref="B81:X81"/>
+    <mergeCell ref="B88:X88"/>
+    <mergeCell ref="B89:X89"/>
+    <mergeCell ref="B90:X90"/>
+    <mergeCell ref="B91:X91"/>
+    <mergeCell ref="B92:X92"/>
+    <mergeCell ref="B93:X93"/>
+    <mergeCell ref="O107:X107"/>
     <mergeCell ref="B94:X94"/>
     <mergeCell ref="B95:X95"/>
     <mergeCell ref="B96:X96"/>
     <mergeCell ref="B97:X97"/>
     <mergeCell ref="B98:X98"/>
     <mergeCell ref="B99:X99"/>
-    <mergeCell ref="B88:X88"/>
-    <mergeCell ref="B89:X89"/>
-    <mergeCell ref="B90:X90"/>
-    <mergeCell ref="B91:X91"/>
-    <mergeCell ref="B92:X92"/>
-    <mergeCell ref="B93:X93"/>
     <mergeCell ref="O108:W108"/>
     <mergeCell ref="O109:P109"/>
     <mergeCell ref="Q109:V109"/>
@@ -4385,14 +4379,13 @@
     <mergeCell ref="B102:L102"/>
     <mergeCell ref="M102:X102"/>
     <mergeCell ref="D107:J107"/>
-    <mergeCell ref="O107:X107"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.38999998569488525" bottom="0.5899999737739563" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:Y42 A44:Y111 A43:F43 Y43" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:Y42 A66:Y111 A65 C65:Y65 A44:Y64 A43:G43 Y43 M43" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
